--- a/reporting/Acts_01_23.xlsx
+++ b/reporting/Acts_01_23.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B596C7-9B67-4CF4-BA5B-7106ED6DC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE8D0D-0A4F-407A-80F5-A9066B6B8031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="5520" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Контрагент</t>
   </si>
@@ -97,55 +97,37 @@
     <t>ESCO-PIVNICH</t>
   </si>
   <si>
+    <t>Карайкозiвська площа №51</t>
+  </si>
+  <si>
+    <t>Будівництво свердловини №171122/51, 17.11.2022</t>
+  </si>
+  <si>
     <t>31.01.2023</t>
   </si>
   <si>
+    <t>Підготовчі роботи. Мобілізація бурового верстату, обладнання та вишкомонтажної бригади, монтаж бурового верстату та обладнання.</t>
+  </si>
+  <si>
     <t>январь 2023</t>
   </si>
   <si>
+    <t>Направлення Ø630</t>
+  </si>
+  <si>
+    <t>Кондуктор Ø473,1</t>
+  </si>
+  <si>
     <t>Клубанівсько-Зубренківське родовище №1</t>
   </si>
   <si>
     <t>КРС №010922КРС, 01.09.2022</t>
   </si>
   <si>
-    <t>01.01.2023</t>
-  </si>
-  <si>
-    <t>роботи в період з 28.11.2022р. по 31.12.2022р. Включно</t>
-  </si>
-  <si>
-    <t>+ доп. Роботи</t>
-  </si>
-  <si>
-    <t>Клубанівсько-Зубренківське родовище №10</t>
-  </si>
-  <si>
-    <t>Будівництво свердловини №091221КЛЗ, 09.12.2021</t>
-  </si>
-  <si>
-    <t>01.07.2022-30.11.2022</t>
-  </si>
-  <si>
-    <t>аренда - 7 225 416,45 + 7 158 994,92 + 6 721 047,90 + 7 110 775,35 + 7 169 601,60 грн. (без НДС)</t>
-  </si>
-  <si>
-    <t>аренда за 12.2022</t>
-  </si>
-  <si>
-    <t>аренда - 7 607 130,30 грн. (без НДС)</t>
-  </si>
-  <si>
-    <t>Клубанівсько-Зубренківське родовище №3</t>
-  </si>
-  <si>
-    <t>Будівництво свердловини №010721КЛЗ, 01.07.2021</t>
-  </si>
-  <si>
-    <t>01.09.2022-30.11.2022</t>
-  </si>
-  <si>
-    <t>аренда - 6 721 047,90 + 7 110 775,35 + 7 169 601,60 грн. (без НДС)</t>
+    <t>роботи в період з 01.01.2023р. по 31.01.2023р. включно</t>
+  </si>
+  <si>
+    <t>+ доп. роботи ???</t>
   </si>
   <si>
     <t>NGPG</t>
@@ -157,7 +139,7 @@
     <t>КРС №201222 КРС, 20.12.2022</t>
   </si>
   <si>
-    <t>моб/монтаж</t>
+    <t>моб/монтаж + роботи з 06.01.23 по 31.01.23 включно</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1018,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K35" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A5:K34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K34" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A5:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="9"/>
@@ -1323,10 +1305,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -1428,40 +1410,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="7">
+        <v>18754909.27</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>3125818.2116666664</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7">
-        <v>26067548.699999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>4344591.45</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.35">
@@ -1469,35 +1449,33 @@
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7">
-        <v>42463003.460000001</v>
+        <v>7221236.9299999997</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>7077167.2433333332</v>
+        <v>1203539.4883333333</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" x14ac:dyDescent="0.35">
@@ -1505,35 +1483,33 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7">
-        <v>9128556.3599999994</v>
+        <v>18497723.68</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>1521426.0599999998</v>
+        <v>3082953.9466666668</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.35">
@@ -1541,106 +1517,88 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7">
-        <v>25201709.82</v>
+        <v>23343372</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J9" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>4200284.97</v>
+        <v>3890562</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="7">
-        <v>9128556.3599999994</v>
+        <v>20467308</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>1521426.0599999998</v>
+        <v>3411218</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4924716</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="4"/>
       <c r="J11" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>820786</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
@@ -1978,7 +1936,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1995,44 +1953,28 @@
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="17">
         <f>SUBTOTAL(109,Acts[7])</f>
-        <v>116914090.7</v>
-      </c>
-      <c r="H35" s="17">
+        <v>88284549.879999995</v>
+      </c>
+      <c r="H34" s="17">
         <f>SUBTOTAL(109,Acts[8])</f>
         <v>0</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="17">
+      <c r="I34" s="15"/>
+      <c r="J34" s="17">
         <f>SUBTOTAL(109,Acts[10])</f>
-        <v>19485681.783333331</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>14714091.646666666</v>
+      </c>
+      <c r="K34" s="18"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
